--- a/data-format.xlsx
+++ b/data-format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asa/git/baby-feeding-diaper-grapher/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{416041B3-D9FE-A745-8C47-942D8957E001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810496B6-65C3-9947-BE3B-3D14498F2253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="920" windowWidth="27520" windowHeight="22500" xr2:uid="{8635D1C2-5FA1-3B48-BE6A-B48C68BF5137}"/>
+    <workbookView xWindow="1980" yWindow="880" windowWidth="27520" windowHeight="22500" xr2:uid="{8635D1C2-5FA1-3B48-BE6A-B48C68BF5137}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>4 7 9 10:00 11 14 15 16 17 19:00 19:45 21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weight</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -466,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E6EFD0-B173-504B-94FA-608B9B11A6F6}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -483,7 +487,7 @@
     <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,10 +506,13 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>45884</v>
+        <v>45658</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -522,49 +529,52 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>45885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1">
